--- a/reb_4_4/reb_4_4_data.xlsx
+++ b/reb_4_4/reb_4_4_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lund/Projects/Kinetics/RE_Basics_Examples/reb_4_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF38B39-2991-184C-B51B-9023C707E28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8777D-2A21-FE4E-9B40-6C4BFA62EEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49280" yWindow="5680" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Temperature</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Rate Coefficient (L/mol/min)</t>
+  </si>
+  <si>
+    <t>Experiment Number</t>
   </si>
 </sst>
 </file>
@@ -1223,158 +1226,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790F6F9-3556-DC43-B193-AB24089BD3A9}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>2.63E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>4.7800000000000002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>40</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>1.5200000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>54</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>4.1799999999999997E-3</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>65</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>9.0699999999999999E-3</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>78</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>89</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
         <v>103</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C10" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C11" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D11" s="2"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="2"/>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C12" s="2"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D12" s="2"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="2"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C13" s="2"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D13" s="2"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="2"/>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C14" s="2"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D14" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="1"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
